--- a/biology/Zoologie/Alligatoroidea/Alligatoroidea.xlsx
+++ b/biology/Zoologie/Alligatoroidea/Alligatoroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alligatoroidea sont une super-famille de reptiles apparue à la fin du Crétacé et contenant la famille des Alligatoridae.
-Cladistiquement, ils sont définis comme comprenant Alligator mississippiensis (Alligator américain) et tous les crocodiliens qui lui sont plus apparentés qu'à Crocodylus niloticus (Crocodile du Nil)[1]. Leurs groupe frère est celui des Crocodyloidea.
+Cladistiquement, ils sont définis comme comprenant Alligator mississippiensis (Alligator américain) et tous les crocodiliens qui lui sont plus apparentés qu'à Crocodylus niloticus (Crocodile du Nil). Leurs groupe frère est celui des Crocodyloidea.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>le clade Globidonta comprend:
 la famille Alligatoridae:
